--- a/-产品/EXCEL/VEMS/VEMS配置默认项规范.xlsx
+++ b/-产品/EXCEL/VEMS/VEMS配置默认项规范.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>VEMS配置默认项规范</t>
   </si>
@@ -121,10 +122,16 @@
     <t>是否支持电子发票</t>
   </si>
   <si>
-    <t>是否开启模糊车牌匹配</t>
-  </si>
-  <si>
-    <t>系统自动匹配自动放行</t>
+    <t>进场模糊匹配</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>出场模糊匹配</t>
+  </si>
+  <si>
+    <t>开启</t>
   </si>
   <si>
     <t>一体机开闸计数时间</t>
@@ -196,12 +203,12 @@
     <t>是否设置计费组</t>
   </si>
   <si>
+    <t>默认不绑定计费组,就是使用默认计费组</t>
+  </si>
+  <si>
     <t>计费组名称</t>
   </si>
   <si>
-    <t>默认计费规则</t>
-  </si>
-  <si>
     <t>结算类型</t>
   </si>
   <si>
@@ -328,6 +335,9 @@
     <t>是否认证</t>
   </si>
   <si>
+    <t>海康枪默认是，华夏枪默认否</t>
+  </si>
+  <si>
     <t>状态</t>
   </si>
   <si>
@@ -364,7 +374,7 @@
     <t>转换器名称</t>
   </si>
   <si>
-    <t>传输模式参数</t>
+    <t>通道名称+转换器</t>
   </si>
   <si>
     <t>一体机配置-显示屏</t>
@@ -379,7 +389,7 @@
     <t>空闲显示内容</t>
   </si>
   <si>
-    <t>智泊\%T</t>
+    <t>进口：欢迎光临\%T 出口：一路顺风\%T</t>
   </si>
   <si>
     <t>一体机配置-语音板</t>
@@ -404,10 +414,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -420,76 +437,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,8 +461,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,9 +513,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,19 +552,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -585,187 +602,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,32 +799,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +821,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,17 +885,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,10 +901,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -896,137 +913,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,7 +1059,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,25 +1393,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="72.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="20.1272727272727" customWidth="1"/>
     <col min="2" max="2" width="17.5454545454545" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="22.7272727272727" customWidth="1"/>
+    <col min="4" max="4" width="21.2545454545455" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1392,11 +1424,13 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -1472,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1483,7 +1517,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1506,7 +1540,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1546,7 +1580,7 @@
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1578,7 +1612,7 @@
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1586,189 +1620,190 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A27" s="3" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>42</v>
+      <c r="C30" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
+      <c r="C32" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="5">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>8</v>
+        <v>57</v>
+      </c>
+      <c r="C42" s="9">
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="4" t="s">
         <v>58</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
+      <c r="C44" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
         <v>62</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="C47" t="s">
-        <v>6</v>
+      <c r="C47" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
         <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1776,44 +1811,45 @@
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A51" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A52" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
+      <c r="C53" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1821,15 +1857,15 @@
         <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1837,12 +1873,12 @@
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>11</v>
@@ -1850,10 +1886,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1861,15 +1897,15 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1890,30 +1926,31 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="69" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A69" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1921,29 +1958,30 @@
       <c r="A71" t="s">
         <v>96</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
+    <row r="75" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1959,99 +1997,105 @@
         <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" t="s">
         <v>105</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
-      <c r="A84" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:3">
-      <c r="A85" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" t="s">
+    <row r="85" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" customFormat="1" spans="1:4">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
+      <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>113</v>
-      </c>
-      <c r="C88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A94" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
@@ -2059,60 +2103,61 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
+        <v>123</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A105" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -2120,75 +2165,97 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C111">
         <v>50</v>
       </c>
     </row>
-    <row r="114" s="3" customFormat="1" ht="15" customHeight="1" spans="1:1">
+    <row r="114" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A114" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>